--- a/Code/Results/Cases/Case_1_65/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_65/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2691761576942042</v>
+        <v>0.142470422916503</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.05261175717081024</v>
+        <v>0.1662913088126157</v>
       </c>
       <c r="E2">
-        <v>0.03747741013018224</v>
+        <v>0.132469205662674</v>
       </c>
       <c r="F2">
-        <v>1.261510867295257</v>
+        <v>1.387839352556867</v>
       </c>
       <c r="G2">
-        <v>0.0007641437941041123</v>
+        <v>0.002423862616003382</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03609639586354341</v>
+        <v>0.139352625704575</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.99125129619722</v>
+        <v>0.8149744815221283</v>
       </c>
       <c r="N2">
-        <v>2.203848018436446</v>
+        <v>1.527816983927778</v>
       </c>
       <c r="O2">
-        <v>3.755211253136849</v>
+        <v>3.488605281458717</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2356827713711311</v>
+        <v>0.1329216869159495</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.05368531104785035</v>
+        <v>0.1675120863414179</v>
       </c>
       <c r="E3">
-        <v>0.03958867431147928</v>
+        <v>0.1341961599465806</v>
       </c>
       <c r="F3">
-        <v>1.130361968280056</v>
+        <v>1.366939048012213</v>
       </c>
       <c r="G3">
-        <v>0.0007701234780877075</v>
+        <v>0.002427893894604665</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03922331525195766</v>
+        <v>0.1417655501149913</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.732902111988523</v>
+        <v>0.7363472168535452</v>
       </c>
       <c r="N3">
-        <v>2.036583350468419</v>
+        <v>1.476584459131715</v>
       </c>
       <c r="O3">
-        <v>3.332686508791227</v>
+        <v>3.411136809731317</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2152283444731893</v>
+        <v>0.1271248160866492</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.05441196486295574</v>
+        <v>0.1683116973627001</v>
       </c>
       <c r="E4">
-        <v>0.04098620672203834</v>
+        <v>0.1353204602427773</v>
       </c>
       <c r="F4">
-        <v>1.052257019265539</v>
+        <v>1.355023274115169</v>
       </c>
       <c r="G4">
-        <v>0.0007739094811424791</v>
+        <v>0.002430502538738944</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04130243056170979</v>
+        <v>0.1433348768683231</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1.574454116279455</v>
+        <v>0.6880271958531523</v>
       </c>
       <c r="N4">
-        <v>1.935004929595436</v>
+        <v>1.445668668305274</v>
       </c>
       <c r="O4">
-        <v>3.080158525292575</v>
+        <v>3.36594553770118</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2069184094540759</v>
+        <v>0.1247793806297466</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.05472462624567953</v>
+        <v>0.1686501441887067</v>
       </c>
       <c r="E5">
-        <v>0.04158029813314634</v>
+        <v>0.1357946937302366</v>
       </c>
       <c r="F5">
-        <v>1.020983084606826</v>
+        <v>1.350397555799987</v>
       </c>
       <c r="G5">
-        <v>0.0007754819295468778</v>
+        <v>0.002431599240941079</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.04218797204209057</v>
+        <v>0.1439964284945674</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1.509909229972024</v>
+        <v>0.6683270962711418</v>
       </c>
       <c r="N5">
-        <v>1.893882268601402</v>
+        <v>1.433208240783443</v>
       </c>
       <c r="O5">
-        <v>2.978821232658476</v>
+        <v>3.348125074287651</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2055400173986897</v>
+        <v>0.1243909461329906</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.05477753063963675</v>
+        <v>0.1687071043687673</v>
       </c>
       <c r="E6">
-        <v>0.04168040700165276</v>
+        <v>0.1358744103417338</v>
       </c>
       <c r="F6">
-        <v>1.015822040014555</v>
+        <v>1.349643337511935</v>
       </c>
       <c r="G6">
-        <v>0.0007757448460320668</v>
+        <v>0.002431783383639754</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.04233727871492121</v>
+        <v>0.1441076086669684</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.499192465262993</v>
+        <v>0.6650553895840261</v>
       </c>
       <c r="N6">
-        <v>1.887069968876801</v>
+        <v>1.431147588498618</v>
       </c>
       <c r="O6">
-        <v>2.962084425642047</v>
+        <v>3.345201905520781</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2151161740072212</v>
+        <v>0.1270931162646178</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.05441611508275912</v>
+        <v>0.1683162107433027</v>
       </c>
       <c r="E7">
-        <v>0.04099412041107886</v>
+        <v>0.1353267908560243</v>
       </c>
       <c r="F7">
-        <v>1.051833072207017</v>
+        <v>1.35495995931187</v>
       </c>
       <c r="G7">
-        <v>0.0007739305667194594</v>
+        <v>0.002430517192888657</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.04131422050109634</v>
+        <v>0.1433437095998036</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.573583570966221</v>
+        <v>0.687761549206968</v>
       </c>
       <c r="N7">
-        <v>1.934449250075744</v>
+        <v>1.445500061270366</v>
       </c>
       <c r="O7">
-        <v>3.07878571006529</v>
+        <v>3.36570279654282</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2576031761643804</v>
+        <v>0.1391644283687299</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.05296764754179684</v>
+        <v>0.1667018535863267</v>
       </c>
       <c r="E8">
-        <v>0.03818383560404381</v>
+        <v>0.1330513839458258</v>
       </c>
       <c r="F8">
-        <v>1.215754374108627</v>
+        <v>1.380442238126989</v>
       </c>
       <c r="G8">
-        <v>0.0007661823577580557</v>
+        <v>0.002425224974357891</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.03714044485163992</v>
+        <v>0.14016636214303</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.902121833702182</v>
+        <v>0.7878734504521105</v>
       </c>
       <c r="N8">
-        <v>2.145935208379854</v>
+        <v>1.510040814827732</v>
       </c>
       <c r="O8">
-        <v>3.607988136908943</v>
+        <v>3.461400174818834</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3419163456110539</v>
+        <v>0.1633523989194572</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.05068316102466852</v>
+        <v>0.163932588936321</v>
       </c>
       <c r="E9">
-        <v>0.03351689480523934</v>
+        <v>0.1290969427694142</v>
       </c>
       <c r="F9">
-        <v>1.559074325854738</v>
+        <v>1.437719429637781</v>
       </c>
       <c r="G9">
-        <v>0.0007518552659678837</v>
+        <v>0.002415900661225448</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.03030178083971968</v>
+        <v>0.1346335827846277</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>2.548899371523859</v>
+        <v>0.9838029102138535</v>
       </c>
       <c r="N9">
-        <v>2.570129241524569</v>
+        <v>1.64082279609093</v>
       </c>
       <c r="O9">
-        <v>4.70868577283477</v>
+        <v>3.668000021716864</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4046470276727518</v>
+        <v>0.1814287983962402</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04937425365826087</v>
+        <v>0.1621388320639685</v>
       </c>
       <c r="E10">
-        <v>0.03066293923451369</v>
+        <v>0.1265013585076824</v>
       </c>
       <c r="F10">
-        <v>1.828699315618792</v>
+        <v>1.484303234092607</v>
       </c>
       <c r="G10">
-        <v>0.0007417956331771935</v>
+        <v>0.002409685550447785</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.02622130443442039</v>
+        <v>0.1309960710820057</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>3.02736114374288</v>
+        <v>1.127459237178797</v>
       </c>
       <c r="N10">
-        <v>2.88844089957405</v>
+        <v>1.739388965418186</v>
       </c>
       <c r="O10">
-        <v>5.568181955992998</v>
+        <v>3.831487616063839</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4333974568601633</v>
+        <v>0.1897167264876316</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04886649490523176</v>
+        <v>0.1613749107968356</v>
       </c>
       <c r="E11">
-        <v>0.0295038592225163</v>
+        <v>0.1253878781364097</v>
       </c>
       <c r="F11">
-        <v>1.956140662519488</v>
+        <v>1.50648386931995</v>
       </c>
       <c r="G11">
-        <v>0.0007373052662124952</v>
+        <v>0.002406994648712165</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.02459975400879522</v>
+        <v>0.129434491819528</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>3.246182888905949</v>
+        <v>1.192737807568136</v>
       </c>
       <c r="N11">
-        <v>3.034911425814073</v>
+        <v>1.784749715473311</v>
       </c>
       <c r="O11">
-        <v>5.973319561489006</v>
+        <v>3.908437286722858</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.444318825828617</v>
+        <v>0.1928642832981353</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.04868751713423691</v>
+        <v>0.1610931076101103</v>
       </c>
       <c r="E12">
-        <v>0.02908627760689075</v>
+        <v>0.1249759128202976</v>
       </c>
       <c r="F12">
-        <v>2.005181288856633</v>
+        <v>1.515026127442241</v>
       </c>
       <c r="G12">
-        <v>0.0007356158194866258</v>
+        <v>0.002405995173706762</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.02402219862940846</v>
+        <v>0.1288565947248816</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>3.329254245902433</v>
+        <v>1.217445624785967</v>
       </c>
       <c r="N12">
-        <v>3.090635025984994</v>
+        <v>1.802000057820237</v>
       </c>
       <c r="O12">
-        <v>6.129057287352055</v>
+        <v>3.937949278330905</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4419651352941685</v>
+        <v>0.1921859996620441</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.04872545997837818</v>
+        <v>0.1611534665761969</v>
       </c>
       <c r="E13">
-        <v>0.02917524018321593</v>
+        <v>0.1250642059459182</v>
       </c>
       <c r="F13">
-        <v>1.994583178520728</v>
+        <v>1.513180031850837</v>
       </c>
       <c r="G13">
-        <v>0.0007359792081737406</v>
+        <v>0.002406209562352974</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.02414491636568705</v>
+        <v>0.1289804567747908</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>3.311353380123052</v>
+        <v>1.212124900971318</v>
       </c>
       <c r="N13">
-        <v>3.078622150071141</v>
+        <v>1.798281662320221</v>
       </c>
       <c r="O13">
-        <v>6.095408273587566</v>
+        <v>3.93157672859337</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4342952584780591</v>
+        <v>0.1899754968646619</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.04885149955766899</v>
+        <v>0.1613515768816018</v>
       </c>
       <c r="E14">
-        <v>0.02946906897812962</v>
+        <v>0.1253537913141036</v>
       </c>
       <c r="F14">
-        <v>1.960159038300375</v>
+        <v>1.507183777679685</v>
       </c>
       <c r="G14">
-        <v>0.0007371660632408067</v>
+        <v>0.002406912030640273</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.02455149029825598</v>
+        <v>0.1293866782787862</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>3.253012794980378</v>
+        <v>1.194770778770973</v>
       </c>
       <c r="N14">
-        <v>3.039490550485169</v>
+        <v>1.786167455223449</v>
       </c>
       <c r="O14">
-        <v>5.986083935341753</v>
+        <v>3.910857772284714</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4296017977004425</v>
+        <v>0.1886226780633109</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04893045607643565</v>
+        <v>0.1614738986218782</v>
       </c>
       <c r="E15">
-        <v>0.02965186722982427</v>
+        <v>0.1255324324460236</v>
       </c>
       <c r="F15">
-        <v>1.939177935137423</v>
+        <v>1.503529532466615</v>
       </c>
       <c r="G15">
-        <v>0.0007378944298737182</v>
+        <v>0.002407344850813398</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.02480536616188189</v>
+        <v>0.1296372521908893</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>3.217305916218152</v>
+        <v>1.184139302147443</v>
       </c>
       <c r="N15">
-        <v>3.015555538419022</v>
+        <v>1.778756630995275</v>
       </c>
       <c r="O15">
-        <v>5.919430885259374</v>
+        <v>3.898215427041293</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4027727139607862</v>
+        <v>0.1808884486025306</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.04940925879660263</v>
+        <v>0.1621898029878786</v>
       </c>
       <c r="E16">
-        <v>0.03074159941642662</v>
+        <v>0.1265754817046822</v>
       </c>
       <c r="F16">
-        <v>1.820474789468449</v>
+        <v>1.482873643052159</v>
       </c>
       <c r="G16">
-        <v>0.000742090700904291</v>
+        <v>0.002409864142871009</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.02633222823009262</v>
+        <v>0.131100002096197</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>3.013087463221567</v>
+        <v>1.12319156434377</v>
       </c>
       <c r="N16">
-        <v>2.878903827529371</v>
+        <v>1.736434882872828</v>
       </c>
       <c r="O16">
-        <v>5.542013771735583</v>
+        <v>3.826510832564679</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3863711180956813</v>
+        <v>0.176160202532202</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.0497259162750634</v>
+        <v>0.1626423157238523</v>
       </c>
       <c r="E17">
-        <v>0.03144667466279305</v>
+        <v>0.1272325958003986</v>
       </c>
       <c r="F17">
-        <v>1.748943643654258</v>
+        <v>1.470455804104574</v>
       </c>
       <c r="G17">
-        <v>0.0007446860142270167</v>
+        <v>0.002411444506318998</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.02733089627067997</v>
+        <v>0.1320212400530094</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>2.888132274564299</v>
+        <v>1.085782746330338</v>
       </c>
       <c r="N17">
-        <v>2.795512497687724</v>
+        <v>1.710604311494137</v>
       </c>
       <c r="O17">
-        <v>5.31429894444085</v>
+        <v>3.783184221272791</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.376957271841718</v>
+        <v>0.1734467614257369</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.04991625615318185</v>
+        <v>0.162907490536373</v>
       </c>
       <c r="E18">
-        <v>0.03186523252308238</v>
+        <v>0.1276168808607041</v>
       </c>
       <c r="F18">
-        <v>1.70824535704628</v>
+        <v>1.463406481868716</v>
       </c>
       <c r="G18">
-        <v>0.000746186937009452</v>
+        <v>0.002412366332681941</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.02792721545132615</v>
+        <v>0.1325598761090809</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>2.816368508477055</v>
+        <v>1.064259550421937</v>
       </c>
       <c r="N18">
-        <v>2.747703909016991</v>
+        <v>1.695796544514849</v>
       </c>
       <c r="O18">
-        <v>5.184636311332838</v>
+        <v>3.758506462251546</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3737732245559613</v>
+        <v>0.1725290952392413</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.04998209141795229</v>
+        <v>0.1629981163096232</v>
       </c>
       <c r="E19">
-        <v>0.03200914615812156</v>
+        <v>0.1277480800368922</v>
       </c>
       <c r="F19">
-        <v>1.694539287400417</v>
+        <v>1.461035670979513</v>
       </c>
       <c r="G19">
-        <v>0.0007466965662727681</v>
+        <v>0.002412680655949008</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.02813280235044857</v>
+        <v>0.1327437529329041</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>2.792087778729936</v>
+        <v>1.056971072454573</v>
       </c>
       <c r="N19">
-        <v>2.73154298245214</v>
+        <v>1.690791414394226</v>
       </c>
       <c r="O19">
-        <v>5.140952016474841</v>
+        <v>3.750192594836278</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3881150102560866</v>
+        <v>0.1766629005796858</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.04969135334991215</v>
+        <v>0.1625936377615353</v>
       </c>
       <c r="E20">
-        <v>0.03137026172601587</v>
+        <v>0.1271619896164875</v>
       </c>
       <c r="F20">
-        <v>1.756511605454918</v>
+        <v>1.471768065069952</v>
       </c>
       <c r="G20">
-        <v>0.0007444089029277026</v>
+        <v>0.002411274945338409</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.02722229942800247</v>
+        <v>0.1319222652984973</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>2.901422599908813</v>
+        <v>1.089765676215407</v>
       </c>
       <c r="N20">
-        <v>2.804373383815232</v>
+        <v>1.713348932133073</v>
       </c>
       <c r="O20">
-        <v>5.338401714754241</v>
+        <v>3.787771293982871</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4365471304349313</v>
+        <v>0.1906245300408216</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04881411189291995</v>
+        <v>0.1612931842326386</v>
       </c>
       <c r="E21">
-        <v>0.0293821742262983</v>
+        <v>0.1252684701044471</v>
       </c>
       <c r="F21">
-        <v>1.970248248613473</v>
+        <v>1.508941138478377</v>
       </c>
       <c r="G21">
-        <v>0.0007368171694210378</v>
+        <v>0.002406705170106611</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.02443105629664544</v>
+        <v>0.1292669960813582</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>3.270142838194815</v>
+        <v>1.199868436150567</v>
       </c>
       <c r="N21">
-        <v>3.050977282855484</v>
+        <v>1.789723719824792</v>
       </c>
       <c r="O21">
-        <v>6.018129722161234</v>
+        <v>3.916933297227274</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4684014434730557</v>
+        <v>0.1998021863980455</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04831867289653857</v>
+        <v>0.1604868410447349</v>
       </c>
       <c r="E22">
-        <v>0.02820790085273917</v>
+        <v>0.1240874065027411</v>
       </c>
       <c r="F22">
-        <v>2.114542131939274</v>
+        <v>1.53406932126255</v>
       </c>
       <c r="G22">
-        <v>0.0007319186587516751</v>
+        <v>0.002403832238368761</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.02282096041389359</v>
+        <v>0.1276099785669675</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>3.512359510341184</v>
+        <v>1.271757719244107</v>
       </c>
       <c r="N22">
-        <v>3.213662957365557</v>
+        <v>1.840064907550186</v>
       </c>
       <c r="O22">
-        <v>6.47605472078402</v>
+        <v>4.003522189238424</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4513806025909304</v>
+        <v>0.1948991324655935</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.04857572499435747</v>
+        <v>0.1609132174445875</v>
       </c>
       <c r="E23">
-        <v>0.02882272613018433</v>
+        <v>0.124712591853342</v>
       </c>
       <c r="F23">
-        <v>2.037075168594825</v>
+        <v>1.520581460567925</v>
       </c>
       <c r="G23">
-        <v>0.0007345278036036692</v>
+        <v>0.002405355207359294</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.02365973539396293</v>
+        <v>0.1284871755598997</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>3.38295605294698</v>
+        <v>1.233395881224382</v>
       </c>
       <c r="N23">
-        <v>3.12668936900269</v>
+        <v>1.813158533964838</v>
       </c>
       <c r="O23">
-        <v>6.230296782555286</v>
+        <v>3.957108456873641</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3873265481227151</v>
+        <v>0.1764356155425304</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.04970695348077214</v>
+        <v>0.1626156294339278</v>
       </c>
       <c r="E24">
-        <v>0.03140476699608818</v>
+        <v>0.1271938904222596</v>
       </c>
       <c r="F24">
-        <v>1.753088810176308</v>
+        <v>1.471174512035574</v>
       </c>
       <c r="G24">
-        <v>0.0007445341573043545</v>
+        <v>0.002411351562677366</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.02727132720553271</v>
+        <v>0.1319669837416946</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>2.895413814341566</v>
+        <v>1.08796504448415</v>
       </c>
       <c r="N24">
-        <v>2.800366960573001</v>
+        <v>1.712107956388905</v>
       </c>
       <c r="O24">
-        <v>5.327500968713537</v>
+        <v>3.78569675812895</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.318982891840804</v>
+        <v>0.1567546016999444</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.05123864628907349</v>
+        <v>0.1646393940455688</v>
       </c>
       <c r="E25">
-        <v>0.03468309028255501</v>
+        <v>0.1301123505123956</v>
       </c>
       <c r="F25">
-        <v>1.463459142480971</v>
+        <v>1.42143727785043</v>
       </c>
       <c r="G25">
-        <v>0.0007556443968119099</v>
+        <v>0.002418311044535545</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.03199554008303274</v>
+        <v>0.136055425368669</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>2.373491308110118</v>
+        <v>0.9308462884999216</v>
       </c>
       <c r="N25">
-        <v>2.454272863928594</v>
+        <v>1.60500070849514</v>
       </c>
       <c r="O25">
-        <v>4.402963993361652</v>
+        <v>3.610066053435673</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_65/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_65/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.142470422916503</v>
+        <v>0.2691761576942042</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1662913088126157</v>
+        <v>0.05261175717080668</v>
       </c>
       <c r="E2">
-        <v>0.132469205662674</v>
+        <v>0.03747741013018224</v>
       </c>
       <c r="F2">
-        <v>1.387839352556867</v>
+        <v>1.261510867295257</v>
       </c>
       <c r="G2">
-        <v>0.002423862616003382</v>
+        <v>0.0007641437940374484</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.139352625704575</v>
+        <v>0.03609639586356561</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8149744815221283</v>
+        <v>1.991251296197206</v>
       </c>
       <c r="N2">
-        <v>1.527816983927778</v>
+        <v>2.203848018436446</v>
       </c>
       <c r="O2">
-        <v>3.488605281458717</v>
+        <v>3.755211253136849</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1329216869159495</v>
+        <v>0.2356827713711596</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1675120863414179</v>
+        <v>0.05368531104784857</v>
       </c>
       <c r="E3">
-        <v>0.1341961599465806</v>
+        <v>0.03958867431148017</v>
       </c>
       <c r="F3">
-        <v>1.366939048012213</v>
+        <v>1.130361968280056</v>
       </c>
       <c r="G3">
-        <v>0.002427893894604665</v>
+        <v>0.0007701234781241517</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1417655501149913</v>
+        <v>0.03922331525199763</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7363472168535452</v>
+        <v>1.732902111988523</v>
       </c>
       <c r="N3">
-        <v>1.476584459131715</v>
+        <v>2.036583350468305</v>
       </c>
       <c r="O3">
-        <v>3.411136809731317</v>
+        <v>3.332686508791255</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1271248160866492</v>
+        <v>0.2152283444732035</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1683116973627001</v>
+        <v>0.05441196486295041</v>
       </c>
       <c r="E4">
-        <v>0.1353204602427773</v>
+        <v>0.04098620672203923</v>
       </c>
       <c r="F4">
-        <v>1.355023274115169</v>
+        <v>1.052257019265539</v>
       </c>
       <c r="G4">
-        <v>0.002430502538738944</v>
+        <v>0.0007739094811137781</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1433348768683231</v>
+        <v>0.04130243056167604</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6880271958531523</v>
+        <v>1.574454116279483</v>
       </c>
       <c r="N4">
-        <v>1.445668668305274</v>
+        <v>1.935004929595436</v>
       </c>
       <c r="O4">
-        <v>3.36594553770118</v>
+        <v>3.080158525292575</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1247793806297466</v>
+        <v>0.2069184094539622</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1686501441887067</v>
+        <v>0.0547246262456742</v>
       </c>
       <c r="E5">
-        <v>0.1357946937302366</v>
+        <v>0.04158029813314545</v>
       </c>
       <c r="F5">
-        <v>1.350397555799987</v>
+        <v>1.02098308460684</v>
       </c>
       <c r="G5">
-        <v>0.002431599240941079</v>
+        <v>0.0007754819295471709</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1439964284945674</v>
+        <v>0.04218797204200264</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6683270962711418</v>
+        <v>1.509909229972052</v>
       </c>
       <c r="N5">
-        <v>1.433208240783443</v>
+        <v>1.89388226860143</v>
       </c>
       <c r="O5">
-        <v>3.348125074287651</v>
+        <v>2.978821232658476</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1243909461329906</v>
+        <v>0.205540017398647</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1687071043687673</v>
+        <v>0.05477753063981972</v>
       </c>
       <c r="E6">
-        <v>0.1358744103417338</v>
+        <v>0.04168040700163633</v>
       </c>
       <c r="F6">
-        <v>1.349643337511935</v>
+        <v>1.015822040014569</v>
       </c>
       <c r="G6">
-        <v>0.002431783383639754</v>
+        <v>0.0007757448460314006</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1441076086669684</v>
+        <v>0.04233727871489279</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6650553895840261</v>
+        <v>1.499192465263008</v>
       </c>
       <c r="N6">
-        <v>1.431147588498618</v>
+        <v>1.88706996887683</v>
       </c>
       <c r="O6">
-        <v>3.345201905520781</v>
+        <v>2.962084425642075</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1270931162646178</v>
+        <v>0.2151161740073633</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1683162107433027</v>
+        <v>0.05441611508268451</v>
       </c>
       <c r="E7">
-        <v>0.1353267908560243</v>
+        <v>0.04099412041106287</v>
       </c>
       <c r="F7">
-        <v>1.35495995931187</v>
+        <v>1.051833072207017</v>
       </c>
       <c r="G7">
-        <v>0.002430517192888657</v>
+        <v>0.0007739305667191852</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1433437095998036</v>
+        <v>0.04131422050106526</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.687761549206968</v>
+        <v>1.573583570966193</v>
       </c>
       <c r="N7">
-        <v>1.445500061270366</v>
+        <v>1.934449250075829</v>
       </c>
       <c r="O7">
-        <v>3.36570279654282</v>
+        <v>3.078785710065233</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1391644283687299</v>
+        <v>0.2576031761644089</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1667018535863267</v>
+        <v>0.05296764754179684</v>
       </c>
       <c r="E8">
-        <v>0.1330513839458258</v>
+        <v>0.03818383560403671</v>
       </c>
       <c r="F8">
-        <v>1.380442238126989</v>
+        <v>1.215754374108627</v>
       </c>
       <c r="G8">
-        <v>0.002425224974357891</v>
+        <v>0.0007661823577208475</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.14016636214303</v>
+        <v>0.03714044485170387</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7878734504521105</v>
+        <v>1.902121833702196</v>
       </c>
       <c r="N8">
-        <v>1.510040814827732</v>
+        <v>2.145935208379967</v>
       </c>
       <c r="O8">
-        <v>3.461400174818834</v>
+        <v>3.607988136909</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1633523989194572</v>
+        <v>0.3419163456112955</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.163932588936321</v>
+        <v>0.05068316102455306</v>
       </c>
       <c r="E9">
-        <v>0.1290969427694142</v>
+        <v>0.03351689480525355</v>
       </c>
       <c r="F9">
-        <v>1.437719429637781</v>
+        <v>1.559074325854709</v>
       </c>
       <c r="G9">
-        <v>0.002415900661225448</v>
+        <v>0.0007518552659682756</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1346335827846277</v>
+        <v>0.03030178083962554</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.9838029102138535</v>
+        <v>2.548899371523873</v>
       </c>
       <c r="N9">
-        <v>1.64082279609093</v>
+        <v>2.570129241524569</v>
       </c>
       <c r="O9">
-        <v>3.668000021716864</v>
+        <v>4.70868577283477</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1814287983962402</v>
+        <v>0.4046470276722403</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1621388320639685</v>
+        <v>0.04937425365796067</v>
       </c>
       <c r="E10">
-        <v>0.1265013585076824</v>
+        <v>0.03066293923453678</v>
       </c>
       <c r="F10">
-        <v>1.484303234092607</v>
+        <v>1.828699315618763</v>
       </c>
       <c r="G10">
-        <v>0.002409685550447785</v>
+        <v>0.000741795633149235</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1309960710820057</v>
+        <v>0.02622130443436355</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.127459237178797</v>
+        <v>3.027361143742894</v>
       </c>
       <c r="N10">
-        <v>1.739388965418186</v>
+        <v>2.88844089957405</v>
       </c>
       <c r="O10">
-        <v>3.831487616063839</v>
+        <v>5.568181955992998</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1897167264876316</v>
+        <v>0.4333974568601491</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1613749107968356</v>
+        <v>0.04886649490535788</v>
       </c>
       <c r="E11">
-        <v>0.1253878781364097</v>
+        <v>0.02950385922251719</v>
       </c>
       <c r="F11">
-        <v>1.50648386931995</v>
+        <v>1.956140662519473</v>
       </c>
       <c r="G11">
-        <v>0.002406994648712165</v>
+        <v>0.000737305266184423</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.129434491819528</v>
+        <v>0.02459975400884673</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.192737807568136</v>
+        <v>3.246182888905935</v>
       </c>
       <c r="N11">
-        <v>1.784749715473311</v>
+        <v>3.034911425813959</v>
       </c>
       <c r="O11">
-        <v>3.908437286722858</v>
+        <v>5.973319561489006</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1928642832981353</v>
+        <v>0.4443188258290149</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1610931076101103</v>
+        <v>0.04868751713425468</v>
       </c>
       <c r="E12">
-        <v>0.1249759128202976</v>
+        <v>0.02908627760689253</v>
       </c>
       <c r="F12">
-        <v>1.515026127442241</v>
+        <v>2.005181288856633</v>
       </c>
       <c r="G12">
-        <v>0.002405995173706762</v>
+        <v>0.0007356158194665673</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1288565947248816</v>
+        <v>0.02402219862951505</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.217445624785967</v>
+        <v>3.329254245902419</v>
       </c>
       <c r="N12">
-        <v>1.802000057820237</v>
+        <v>3.090635025984909</v>
       </c>
       <c r="O12">
-        <v>3.937949278330905</v>
+        <v>6.129057287352111</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1921859996620441</v>
+        <v>0.4419651352939269</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1611534665761969</v>
+        <v>0.04872545997838529</v>
       </c>
       <c r="E13">
-        <v>0.1250642059459182</v>
+        <v>0.02917524018324258</v>
       </c>
       <c r="F13">
-        <v>1.513180031850837</v>
+        <v>1.994583178520699</v>
       </c>
       <c r="G13">
-        <v>0.002406209562352974</v>
+        <v>0.0007359792082227026</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1289804567747908</v>
+        <v>0.0241449163656533</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.212124900971318</v>
+        <v>3.311353380123037</v>
       </c>
       <c r="N13">
-        <v>1.798281662320221</v>
+        <v>3.078622150071112</v>
       </c>
       <c r="O13">
-        <v>3.93157672859337</v>
+        <v>6.095408273587623</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1899754968646619</v>
+        <v>0.4342952584779027</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1613515768816018</v>
+        <v>0.04885149955757129</v>
       </c>
       <c r="E14">
-        <v>0.1253537913141036</v>
+        <v>0.02946906897813939</v>
       </c>
       <c r="F14">
-        <v>1.507183777679685</v>
+        <v>1.960159038300361</v>
       </c>
       <c r="G14">
-        <v>0.002406912030640273</v>
+        <v>0.0007371660631852956</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1293866782787862</v>
+        <v>0.02455149029826309</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.194770778770973</v>
+        <v>3.253012794980378</v>
       </c>
       <c r="N14">
-        <v>1.786167455223449</v>
+        <v>3.039490550485169</v>
       </c>
       <c r="O14">
-        <v>3.910857772284714</v>
+        <v>5.98608393534181</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1886226780633109</v>
+        <v>0.4296017977002151</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1614738986218782</v>
+        <v>0.04893045607633617</v>
       </c>
       <c r="E15">
-        <v>0.1255324324460236</v>
+        <v>0.02965186722982249</v>
       </c>
       <c r="F15">
-        <v>1.503529532466615</v>
+        <v>1.939177935137423</v>
       </c>
       <c r="G15">
-        <v>0.002407344850813398</v>
+        <v>0.0007378944298455186</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1296372521908893</v>
+        <v>0.02480536616188189</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.184139302147443</v>
+        <v>3.217305916218194</v>
       </c>
       <c r="N15">
-        <v>1.778756630995275</v>
+        <v>3.015555538419022</v>
       </c>
       <c r="O15">
-        <v>3.898215427041293</v>
+        <v>5.91943088525943</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1808884486025306</v>
+        <v>0.4027727139608146</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1621898029878786</v>
+        <v>0.04940925879668612</v>
       </c>
       <c r="E16">
-        <v>0.1265754817046822</v>
+        <v>0.03074159941641508</v>
       </c>
       <c r="F16">
-        <v>1.482873643052159</v>
+        <v>1.820474789468449</v>
       </c>
       <c r="G16">
-        <v>0.002409864142871009</v>
+        <v>0.000742090700903475</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.131100002096197</v>
+        <v>0.02633222823012815</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.12319156434377</v>
+        <v>3.013087463221581</v>
       </c>
       <c r="N16">
-        <v>1.736434882872828</v>
+        <v>2.878903827529399</v>
       </c>
       <c r="O16">
-        <v>3.826510832564679</v>
+        <v>5.54201377173564</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.176160202532202</v>
+        <v>0.3863711180956955</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1626423157238523</v>
+        <v>0.04972591627504919</v>
       </c>
       <c r="E17">
-        <v>0.1272325958003986</v>
+        <v>0.03144667466281792</v>
       </c>
       <c r="F17">
-        <v>1.470455804104574</v>
+        <v>1.748943643654272</v>
       </c>
       <c r="G17">
-        <v>0.002411444506318998</v>
+        <v>0.0007446860141995665</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1320212400530094</v>
+        <v>0.02733089627063734</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.085782746330338</v>
+        <v>2.888132274564271</v>
       </c>
       <c r="N17">
-        <v>1.710604311494137</v>
+        <v>2.795512497687753</v>
       </c>
       <c r="O17">
-        <v>3.783184221272791</v>
+        <v>5.314298944440793</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1734467614257369</v>
+        <v>0.3769572718417038</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.162907490536373</v>
+        <v>0.04991625615327067</v>
       </c>
       <c r="E18">
-        <v>0.1276168808607041</v>
+        <v>0.03186523252310547</v>
       </c>
       <c r="F18">
-        <v>1.463406481868716</v>
+        <v>1.708245357046295</v>
       </c>
       <c r="G18">
-        <v>0.002412366332681941</v>
+        <v>0.0007461869369648373</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1325598761090809</v>
+        <v>0.02792721545133325</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.064259550421937</v>
+        <v>2.816368508477055</v>
       </c>
       <c r="N18">
-        <v>1.695796544514849</v>
+        <v>2.747703909016877</v>
       </c>
       <c r="O18">
-        <v>3.758506462251546</v>
+        <v>5.184636311332781</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1725290952392413</v>
+        <v>0.3737732245562029</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1629981163096232</v>
+        <v>0.0499820914179665</v>
       </c>
       <c r="E19">
-        <v>0.1277480800368922</v>
+        <v>0.0320091461581189</v>
       </c>
       <c r="F19">
-        <v>1.461035670979513</v>
+        <v>1.694539287400431</v>
       </c>
       <c r="G19">
-        <v>0.002412680655949008</v>
+        <v>0.0007466965663168462</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1327437529329041</v>
+        <v>0.02813280235043969</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.056971072454573</v>
+        <v>2.792087778729936</v>
       </c>
       <c r="N19">
-        <v>1.690791414394226</v>
+        <v>2.731542982452169</v>
       </c>
       <c r="O19">
-        <v>3.750192594836278</v>
+        <v>5.140952016474785</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1766629005796858</v>
+        <v>0.388115010256044</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1625936377615353</v>
+        <v>0.04969135334999919</v>
       </c>
       <c r="E20">
-        <v>0.1271619896164875</v>
+        <v>0.0313702617260132</v>
       </c>
       <c r="F20">
-        <v>1.471768065069952</v>
+        <v>1.756511605454932</v>
       </c>
       <c r="G20">
-        <v>0.002411274945338409</v>
+        <v>0.0007444089029836978</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1319222652984973</v>
+        <v>0.02722229942805399</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.089765676215407</v>
+        <v>2.901422599908813</v>
       </c>
       <c r="N20">
-        <v>1.713348932133073</v>
+        <v>2.804373383815232</v>
       </c>
       <c r="O20">
-        <v>3.787771293982871</v>
+        <v>5.338401714754241</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1906245300408216</v>
+        <v>0.4365471304347039</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1612931842326386</v>
+        <v>0.04881411189301232</v>
       </c>
       <c r="E21">
-        <v>0.1252684701044471</v>
+        <v>0.02938217422630007</v>
       </c>
       <c r="F21">
-        <v>1.508941138478377</v>
+        <v>1.97024824861343</v>
       </c>
       <c r="G21">
-        <v>0.002406705170106611</v>
+        <v>0.0007368171694215929</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1292669960813582</v>
+        <v>0.02443105629664721</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.199868436150567</v>
+        <v>3.270142838194829</v>
       </c>
       <c r="N21">
-        <v>1.789723719824792</v>
+        <v>3.050977282855371</v>
       </c>
       <c r="O21">
-        <v>3.916933297227274</v>
+        <v>6.018129722161234</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1998021863980455</v>
+        <v>0.4684014434732262</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1604868410447349</v>
+        <v>0.04831867289674108</v>
       </c>
       <c r="E22">
-        <v>0.1240874065027411</v>
+        <v>0.02820790085273472</v>
       </c>
       <c r="F22">
-        <v>1.53406932126255</v>
+        <v>2.114542131939274</v>
       </c>
       <c r="G22">
-        <v>0.002403832238368761</v>
+        <v>0.0007319186588000744</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1276099785669675</v>
+        <v>0.02282096041398596</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.271757719244107</v>
+        <v>3.51235951034117</v>
       </c>
       <c r="N22">
-        <v>1.840064907550186</v>
+        <v>3.2136629573655</v>
       </c>
       <c r="O22">
-        <v>4.003522189238424</v>
+        <v>6.47605472078402</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1948991324655935</v>
+        <v>0.4513806025909162</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1609132174445875</v>
+        <v>0.04857572499446405</v>
       </c>
       <c r="E23">
-        <v>0.124712591853342</v>
+        <v>0.02882272613013548</v>
       </c>
       <c r="F23">
-        <v>1.520581460567925</v>
+        <v>2.037075168594811</v>
       </c>
       <c r="G23">
-        <v>0.002405355207359294</v>
+        <v>0.0007345278035284998</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1284871755598997</v>
+        <v>0.02365973539402333</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.233395881224382</v>
+        <v>3.382956052946952</v>
       </c>
       <c r="N23">
-        <v>1.813158533964838</v>
+        <v>3.12668936900269</v>
       </c>
       <c r="O23">
-        <v>3.957108456873641</v>
+        <v>6.230296782555286</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1764356155425304</v>
+        <v>0.3873265481229566</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1626156294339278</v>
+        <v>0.0497069534807828</v>
       </c>
       <c r="E24">
-        <v>0.1271938904222596</v>
+        <v>0.03140476699608641</v>
       </c>
       <c r="F24">
-        <v>1.471174512035574</v>
+        <v>1.753088810176294</v>
       </c>
       <c r="G24">
-        <v>0.002411351562677366</v>
+        <v>0.0007445341573491745</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1319669837416946</v>
+        <v>0.02727132720562864</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.08796504448415</v>
+        <v>2.89541381434158</v>
       </c>
       <c r="N24">
-        <v>1.712107956388905</v>
+        <v>2.800366960573115</v>
       </c>
       <c r="O24">
-        <v>3.78569675812895</v>
+        <v>5.327500968713593</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1567546016999444</v>
+        <v>0.3189828918407329</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1646393940455688</v>
+        <v>0.05123864628903974</v>
       </c>
       <c r="E25">
-        <v>0.1301123505123956</v>
+        <v>0.03468309028255412</v>
       </c>
       <c r="F25">
-        <v>1.42143727785043</v>
+        <v>1.463459142480971</v>
       </c>
       <c r="G25">
-        <v>0.002418311044535545</v>
+        <v>0.0007556443968119849</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.136055425368669</v>
+        <v>0.03199554008303362</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9308462884999216</v>
+        <v>2.373491308110133</v>
       </c>
       <c r="N25">
-        <v>1.60500070849514</v>
+        <v>2.454272863928452</v>
       </c>
       <c r="O25">
-        <v>3.610066053435673</v>
+        <v>4.402963993361539</v>
       </c>
     </row>
   </sheetData>
